--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,48 @@
   </si>
   <si>
     <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>device.vnetgps.com,15757</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim,  nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,9 +1406,13 @@
         <v>65</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>71</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="1"/>
@@ -1458,9 +1504,13 @@
         <v>70</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="L10" s="58"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
@@ -2906,7 +2956,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3133,16 +3183,32 @@
         <v>70</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="60"/>
       <c r="U6" s="76" t="s">
@@ -3172,16 +3238,34 @@
         <v>70</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="I7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="60"/>
       <c r="U7" s="77"/>
@@ -3209,16 +3293,34 @@
         <v>70</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="60"/>
       <c r="U8" s="77"/>
@@ -3246,16 +3348,34 @@
         <v>70</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
       <c r="U9" s="77"/>
@@ -3268,7 +3388,9 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="65">
+        <v>44615</v>
+      </c>
       <c r="C10" s="65"/>
       <c r="D10" s="37" t="s">
         <v>64</v>
@@ -3281,16 +3403,32 @@
         <v>70</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
       <c r="U10" s="77"/>
@@ -3620,7 +3758,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3652,7 +3790,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3929,7 +4067,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4057,7 +4195,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4121,7 +4259,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>GSM,GPS</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -765,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1420,9 @@
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="I8" s="54" t="s">
         <v>71</v>
       </c>
@@ -1507,17 +1524,29 @@
       <c r="I10" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K10" s="39" t="s">
         <v>92</v>
       </c>
       <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="83">
+        <v>375000</v>
+      </c>
       <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="P10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>95</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="66"/>
       <c r="U10" s="77"/>
@@ -1847,7 +1876,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2028,7 +2057,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2060,7 +2089,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2348,7 +2377,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2701,7 +2730,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -2956,7 +2985,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3266,9 @@
       <c r="G7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="I7" s="54" t="s">
         <v>90</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -318,13 +318,19 @@
     <t>Lỗi module GSM/GPS</t>
   </si>
   <si>
-    <t>Thay module GSM/GPS</t>
-  </si>
-  <si>
-    <t>GSM,GPS</t>
-  </si>
-  <si>
     <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038091026</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,9 +709,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,6 +736,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,35 +781,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,43 +1123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1201,109 +1204,111 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>44615</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64">
+        <v>44627</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1324,7 +1329,9 @@
       <c r="K6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="39" t="s">
         <v>75</v>
       </c>
@@ -1342,23 +1349,25 @@
         <v>30</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="65"/>
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="66"/>
+      <c r="W6" s="65"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>44615</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="64">
+        <v>44627</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1382,9 @@
       <c r="I7" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39" t="s">
         <v>68</v>
@@ -1395,21 +1406,23 @@
         <v>24</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="65"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>44615</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="64">
+        <v>44627</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1421,38 +1434,54 @@
         <v>65</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="66"/>
+      <c r="W8" s="65"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>44615</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="64">
+        <v>44627</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1495,21 +1524,23 @@
         <v>78</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>44615</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="64">
+        <v>44627</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1520,7 +1551,9 @@
       <c r="G10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I10" s="48" t="s">
         <v>66</v>
       </c>
@@ -1530,37 +1563,41 @@
       <c r="K10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="83">
+        <v>96</v>
+      </c>
+      <c r="N10" s="67">
         <v>375000</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="66"/>
+      <c r="W10" s="65"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="37"/>
@@ -1577,19 +1614,19 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="66"/>
+      <c r="W11" s="65"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
@@ -1606,21 +1643,21 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="65"/>
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="66"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="37"/>
@@ -1637,19 +1674,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="66"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="37"/>
@@ -1666,19 +1703,19 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="66"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="37"/>
@@ -1696,18 +1733,18 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="66"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="37"/>
@@ -1725,18 +1762,18 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="66"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="37"/>
@@ -1754,15 +1791,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="66"/>
+      <c r="U17" s="65"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="66"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1789,7 +1826,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -1808,7 +1845,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="66" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1820,7 +1857,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -1844,7 +1881,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1852,7 +1889,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -1876,7 +1913,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1884,7 +1921,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -1908,7 +1945,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1916,7 +1953,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -1943,7 +1980,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -1970,7 +2007,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -1989,7 +2026,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="66" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2001,7 +2038,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -2033,7 +2070,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -2065,7 +2102,7 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -2089,7 +2126,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2097,7 +2134,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
@@ -2129,7 +2166,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -2161,7 +2198,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -2193,7 +2230,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -2225,7 +2262,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="62"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -2257,7 +2294,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -2289,7 +2326,7 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -2313,7 +2350,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2321,7 +2358,7 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -2353,7 +2390,7 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -2377,7 +2414,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2385,7 +2422,7 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -2412,7 +2449,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -2439,7 +2476,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="62"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -2471,7 +2508,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="62"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -2503,7 +2540,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -2530,7 +2567,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -2557,7 +2594,7 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -2593,7 +2630,7 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -2632,7 +2669,7 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -2671,7 +2708,7 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="62"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -2710,7 +2747,7 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -2752,7 +2789,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -2780,7 +2817,7 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="63"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
       <c r="E50" s="30"/>
@@ -2808,7 +2845,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -2836,7 +2873,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -2864,7 +2901,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="64"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -2892,7 +2929,7 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="64"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -2920,7 +2957,7 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="64"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -2956,13 +2993,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2974,6 +3004,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2984,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3017,43 +3054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3098,109 +3135,111 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <v>44615</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64">
+        <v>44627</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -3239,23 +3278,25 @@
         <v>30</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="76" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="60"/>
+      <c r="W6" s="59"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <v>44615</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="64">
+        <v>44627</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -3267,7 +3308,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="54" t="s">
         <v>90</v>
@@ -3298,21 +3339,23 @@
         <v>83</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="77"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="60"/>
+      <c r="W7" s="59"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>44615</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="64">
+        <v>44627</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
@@ -3353,21 +3396,23 @@
         <v>83</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="77"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="60"/>
+      <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <v>44615</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="64">
+        <v>44627</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>64</v>
       </c>
@@ -3408,21 +3453,23 @@
         <v>83</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="77"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="60"/>
+      <c r="W9" s="59"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <v>44615</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="64">
+        <v>44627</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>64</v>
       </c>
@@ -3437,7 +3484,9 @@
       <c r="I10" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="K10" s="39" t="s">
         <v>79</v>
       </c>
@@ -3461,19 +3510,19 @@
         <v>83</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="77"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="60"/>
+      <c r="W10" s="59"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="37"/>
@@ -3490,19 +3539,19 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="77"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="60"/>
+      <c r="W11" s="59"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
@@ -3519,20 +3568,20 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="76" t="s">
+      <c r="T12" s="59"/>
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="60"/>
+      <c r="W12" s="59"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -3550,18 +3599,18 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="77"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="60"/>
+      <c r="W13" s="59"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
@@ -3579,18 +3628,18 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="77"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="60"/>
+      <c r="W14" s="59"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
@@ -3609,17 +3658,17 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="60"/>
+      <c r="W15" s="59"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
@@ -3638,17 +3687,17 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="60"/>
+      <c r="W16" s="59"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
@@ -3667,15 +3716,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="59"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="59"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -3702,7 +3751,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -3721,7 +3770,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="58" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -3733,7 +3782,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -3765,7 +3814,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -3797,7 +3846,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -3829,7 +3878,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -3856,7 +3905,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -3883,7 +3932,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -3902,7 +3951,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="59" t="s">
+      <c r="U25" s="58" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -3914,7 +3963,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -3946,7 +3995,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -3978,7 +4027,7 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -4010,7 +4059,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
@@ -4042,7 +4091,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -4074,7 +4123,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -4106,7 +4155,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -4138,7 +4187,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="62"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -4170,7 +4219,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -4202,7 +4251,7 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -4234,7 +4283,7 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -4266,7 +4315,7 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -4298,7 +4347,7 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -4325,7 +4374,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -4352,7 +4401,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="62"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -4384,7 +4433,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="62"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -4416,7 +4465,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -4443,7 +4492,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -4470,7 +4519,7 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -4506,7 +4555,7 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="62"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -4545,7 +4594,7 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -4584,7 +4633,7 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="62"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -4623,7 +4672,7 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -4665,7 +4714,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="62"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -4693,7 +4742,7 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="63"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
       <c r="E50" s="30"/>
@@ -4721,7 +4770,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="62"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -4749,7 +4798,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="63"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -4777,7 +4826,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="64"/>
+      <c r="B53" s="63"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -4805,7 +4854,7 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="64"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -4833,7 +4882,7 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="64"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -4869,6 +4918,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4880,13 +4936,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4930,43 +4979,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5011,58 +5060,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5087,31 +5136,31 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
       <c r="F6" s="49"/>
@@ -5129,7 +5178,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5141,8 +5190,8 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
@@ -5160,7 +5209,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5170,8 +5219,8 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="49"/>
@@ -5189,7 +5238,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5199,8 +5248,8 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="49"/>
@@ -5218,7 +5267,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5228,8 +5277,8 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="37"/>
@@ -5247,7 +5296,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5276,7 +5325,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5305,7 +5354,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5336,7 +5385,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5414,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5394,7 +5443,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5423,7 +5472,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6654,6 +6703,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6665,13 +6721,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
@@ -739,6 +739,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,32 +778,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,43 +1123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1204,58 +1204,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1280,23 +1280,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1675,7 +1675,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2993,6 +2993,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3004,13 +3011,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3054,43 +3054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3135,58 +3135,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3211,23 +3211,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3600,7 +3600,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4918,13 +4918,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4936,6 +4929,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4979,43 +4979,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5060,58 +5060,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5136,23 +5136,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5178,7 +5178,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5209,7 +5209,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5385,7 +5385,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6703,13 +6703,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6721,6 +6714,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_DLMinhHuy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="37" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -739,6 +739,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,30 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M10"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,43 +1123,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1204,58 +1204,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1280,23 +1280,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1675,7 +1675,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2993,13 +2993,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3011,6 +3004,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3021,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3054,43 +3054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3135,58 +3135,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3211,23 +3211,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3600,7 +3600,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4918,6 +4918,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4929,13 +4936,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4979,43 +4979,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5060,58 +5060,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5136,49 +5136,75 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C6" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="38">
+        <v>866192037771225</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>88</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5190,26 +5216,56 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C7" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868345035585926</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="G7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5219,26 +5275,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C8" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="38">
+        <v>866192037796701</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5248,26 +5332,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C9" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="38">
+        <v>866192037795430</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5277,26 +5389,54 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C10" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="38">
+        <v>866192037821483</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="G10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5306,26 +5446,54 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="B11" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C11" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183033816377</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>73</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5335,26 +5503,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
+      <c r="B12" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C12" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>860157040197672</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5366,26 +5560,56 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C13" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>860157040210236</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5395,26 +5619,56 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C14" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868183033867131</v>
+      </c>
       <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="37"/>
+      <c r="I14" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5424,26 +5678,58 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="64">
+        <v>44615</v>
+      </c>
+      <c r="C15" s="64">
+        <v>44627</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="38">
+        <v>867717030436092</v>
+      </c>
       <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="67">
+        <v>375000</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5472,7 +5758,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5591,7 +5877,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5623,7 +5909,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5655,7 +5941,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5804,7 +6090,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -5932,7 +6218,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5996,7 +6282,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -6060,7 +6346,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6124,7 +6410,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6477,7 +6763,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -6703,6 +6989,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6714,13 +7007,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
